--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
   <si>
     <t>Industri</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>fit</t>
   </si>
   <si>
     <t>Minyak &amp; Gas</t>
@@ -935,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,22 +1053,16 @@
       <c r="AM1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>-10.74</v>
@@ -1172,6 +1160,9 @@
       <c r="AI2">
         <v>-4407952</v>
       </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
       <c r="AK2">
         <v>-0.06404330829633725</v>
       </c>
@@ -1181,19 +1172,16 @@
       <c r="AM2">
         <v>-0.4446539958901604</v>
       </c>
-      <c r="AO2">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3">
         <v>22.07</v>
@@ -1291,6 +1279,9 @@
       <c r="AI3">
         <v>-10973225</v>
       </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
       <c r="AK3">
         <v>-0.5002803358221124</v>
       </c>
@@ -1300,19 +1291,16 @@
       <c r="AM3">
         <v>-0.5104102452823898</v>
       </c>
-      <c r="AO3">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4">
         <v>4.28</v>
@@ -1410,6 +1398,9 @@
       <c r="AI4">
         <v>-464012</v>
       </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
       <c r="AK4">
         <v>-0.1847046137821899</v>
       </c>
@@ -1419,19 +1410,16 @@
       <c r="AM4">
         <v>-0.5828602446127503</v>
       </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>200.78</v>
@@ -1529,6 +1517,9 @@
       <c r="AI5">
         <v>4203219</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
       <c r="AK5">
         <v>-0.04083921108751941</v>
       </c>
@@ -1538,19 +1529,16 @@
       <c r="AM5">
         <v>0.4416772459176739</v>
       </c>
-      <c r="AO5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>26.39</v>
@@ -1648,6 +1636,9 @@
       <c r="AI6">
         <v>-6003196</v>
       </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
       <c r="AK6">
         <v>-0.2543169054086435</v>
       </c>
@@ -1657,19 +1648,16 @@
       <c r="AM6">
         <v>-0.009166499915275947</v>
       </c>
-      <c r="AO6">
-        <v>4</v>
-      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>52.43</v>
@@ -1764,6 +1752,9 @@
       <c r="AI7">
         <v>314300</v>
       </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
       <c r="AK7">
         <v>-0.08260658606339152</v>
       </c>
@@ -1773,19 +1764,16 @@
       <c r="AM7">
         <v>0.3267022469803627</v>
       </c>
-      <c r="AO7">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>40.46</v>
@@ -1883,6 +1871,9 @@
       <c r="AI8">
         <v>-1218456</v>
       </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
       <c r="AK8">
         <v>-0.472435419171531</v>
       </c>
@@ -1892,19 +1883,16 @@
       <c r="AM8">
         <v>-0.1457977486524233</v>
       </c>
-      <c r="AO8">
-        <v>4</v>
-      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9">
         <v>13.75</v>
@@ -2002,6 +1990,9 @@
       <c r="AI9">
         <v>-3806446</v>
       </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
       <c r="AK9">
         <v>-0.3192883775933333</v>
       </c>
@@ -2011,19 +2002,16 @@
       <c r="AM9">
         <v>0.261339747584494</v>
       </c>
-      <c r="AO9">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>13.33</v>
@@ -2118,6 +2106,9 @@
       <c r="AI10">
         <v>-166876</v>
       </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
       <c r="AK10">
         <v>-0.2496760859668799</v>
       </c>
@@ -2127,19 +2118,16 @@
       <c r="AM10">
         <v>0.3448147468129528</v>
       </c>
-      <c r="AO10">
-        <v>4</v>
-      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>9.23</v>
@@ -2237,6 +2225,9 @@
       <c r="AI11">
         <v>-702774</v>
       </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
       <c r="AK11">
         <v>-0.7183988495849999</v>
       </c>
@@ -2246,19 +2237,16 @@
       <c r="AM11">
         <v>-0.2485664977025542</v>
       </c>
-      <c r="AO11">
-        <v>4</v>
-      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>16.53</v>
@@ -2356,6 +2344,9 @@
       <c r="AI12">
         <v>-7834254</v>
       </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
       <c r="AK12">
         <v>-0.514202794147403</v>
       </c>
@@ -2365,19 +2356,16 @@
       <c r="AM12">
         <v>-0.625385244219701</v>
       </c>
-      <c r="AO12">
-        <v>4</v>
-      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>22.58</v>
@@ -2475,6 +2463,9 @@
       <c r="AI13">
         <v>-77006</v>
       </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
       <c r="AK13">
         <v>-0.5698926274485658</v>
       </c>
@@ -2484,19 +2475,16 @@
       <c r="AM13">
         <v>-0.6765727437465863</v>
       </c>
-      <c r="AO13">
-        <v>4</v>
-      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14">
         <v>15.09</v>
@@ -2594,6 +2582,9 @@
       <c r="AI14">
         <v>-27955000</v>
       </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
       <c r="AK14">
         <v>-0.4445905025209496</v>
       </c>
@@ -2603,19 +2594,16 @@
       <c r="AM14">
         <v>-0.5336414950676684</v>
       </c>
-      <c r="AO14">
-        <v>4</v>
-      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15">
         <v>31.3</v>
@@ -2713,6 +2701,9 @@
       <c r="AI15">
         <v>-2749689</v>
       </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
       <c r="AK15">
         <v>0.3304263442535657</v>
       </c>
@@ -2722,19 +2713,16 @@
       <c r="AM15">
         <v>0.6531209939633457</v>
       </c>
-      <c r="AO15">
-        <v>4</v>
-      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16">
         <v>71.54000000000001</v>
@@ -2832,6 +2820,9 @@
       <c r="AI16">
         <v>-64499</v>
       </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
       <c r="AK16">
         <v>-0.3053659192680426</v>
       </c>
@@ -2841,19 +2832,16 @@
       <c r="AM16">
         <v>-1.33413523766888</v>
       </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17">
         <v>9.32</v>
@@ -2951,6 +2939,9 @@
       <c r="AI17">
         <v>27285509</v>
       </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
       <c r="AK17">
         <v>-0.2914434609427519</v>
       </c>
@@ -2960,19 +2951,16 @@
       <c r="AM17">
         <v>0.7617959929588864</v>
       </c>
-      <c r="AO17">
-        <v>4</v>
-      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18">
         <v>27.85</v>
@@ -3070,6 +3058,9 @@
       <c r="AI18">
         <v>-2329963</v>
       </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
       <c r="AK18">
         <v>-0.6302232801914922</v>
       </c>
@@ -3079,19 +3070,16 @@
       <c r="AM18">
         <v>-0.5848289945945535</v>
       </c>
-      <c r="AO18">
-        <v>4</v>
-      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19">
         <v>10.32</v>
@@ -3189,6 +3177,9 @@
       <c r="AI19">
         <v>-11119999</v>
       </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
       <c r="AK19">
         <v>-0.6255824607497286</v>
       </c>
@@ -3198,19 +3189,16 @@
       <c r="AM19">
         <v>0.6385522440980015</v>
       </c>
-      <c r="AO19">
-        <v>4</v>
-      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20">
         <v>39.14</v>
@@ -3305,6 +3293,9 @@
       <c r="AI20">
         <v>-7458509</v>
       </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
       <c r="AK20">
         <v>0.6831286218275967</v>
       </c>
@@ -3314,19 +3305,16 @@
       <c r="AM20">
         <v>0.5023147453572148</v>
       </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21">
         <v>7.12</v>
@@ -3424,6 +3412,9 @@
       <c r="AI21">
         <v>-1779015</v>
       </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
       <c r="AK21">
         <v>-0.04548003052928298</v>
       </c>
@@ -3433,19 +3424,16 @@
       <c r="AM21">
         <v>-0.120991498881702</v>
       </c>
-      <c r="AO21">
-        <v>4</v>
-      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22">
         <v>11.25</v>
@@ -3543,6 +3531,9 @@
       <c r="AI22">
         <v>-18010</v>
       </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
       <c r="AK22">
         <v>-0.3378516553603876</v>
       </c>
@@ -3552,19 +3543,16 @@
       <c r="AM22">
         <v>2.031639731221999</v>
       </c>
-      <c r="AO22">
-        <v>4</v>
-      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D23">
         <v>22.7</v>
@@ -3662,6 +3650,9 @@
       <c r="AI23">
         <v>412038</v>
       </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
       <c r="AK23">
         <v>-0.3053659192680426</v>
       </c>
@@ -3671,19 +3662,16 @@
       <c r="AM23">
         <v>-0.3745664965379638</v>
       </c>
-      <c r="AO23">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D24">
         <v>27.54</v>
@@ -3781,6 +3769,9 @@
       <c r="AI24">
         <v>531083</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
       <c r="AK24">
         <v>-0.6627090162838372</v>
       </c>
@@ -3790,19 +3781,16 @@
       <c r="AM24">
         <v>-0.9368414913409792</v>
       </c>
-      <c r="AO24">
-        <v>2</v>
-      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D25">
         <v>9.82</v>
@@ -3900,6 +3888,9 @@
       <c r="AI25">
         <v>101738</v>
       </c>
+      <c r="AJ25">
+        <v>3</v>
+      </c>
       <c r="AK25">
         <v>-0.6395049190750193</v>
       </c>
@@ -3909,19 +3900,16 @@
       <c r="AM25">
         <v>0.3105584971295758</v>
       </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26">
         <v>11.15</v>
@@ -4019,6 +4007,9 @@
       <c r="AI26">
         <v>121882</v>
       </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
       <c r="AK26">
         <v>-0.5559701691232751</v>
       </c>
@@ -4028,19 +4019,16 @@
       <c r="AM26">
         <v>-0.3682664965961933</v>
       </c>
-      <c r="AO26">
-        <v>4</v>
-      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27">
         <v>-4.91</v>
@@ -4138,6 +4126,9 @@
       <c r="AI27">
         <v>11443</v>
       </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
       <c r="AK27">
         <v>4.168384022592034</v>
       </c>
@@ -4147,19 +4138,16 @@
       <c r="AM27">
         <v>-0.2745539974623574</v>
       </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28">
         <v>-39.6</v>
@@ -4254,6 +4242,9 @@
       <c r="AI28">
         <v>-501647</v>
       </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
       <c r="AK28">
         <v>-0.5884559052156202</v>
       </c>
@@ -4263,19 +4254,16 @@
       <c r="AM28">
         <v>-1.661341484644584</v>
       </c>
-      <c r="AO28">
-        <v>2</v>
-      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D29">
         <v>-23.68</v>
@@ -4373,6 +4361,9 @@
       <c r="AI29">
         <v>-110743</v>
       </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
       <c r="AK29">
         <v>0.01485062221364332</v>
       </c>
@@ -4382,19 +4373,16 @@
       <c r="AM29">
         <v>-0.7305164932479958</v>
       </c>
-      <c r="AO29">
-        <v>2</v>
-      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>42.3</v>
@@ -4489,6 +4477,9 @@
       <c r="AI30">
         <v>52924</v>
       </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
       <c r="AK30">
         <v>-0.2218311693162985</v>
       </c>
@@ -4498,19 +4489,16 @@
       <c r="AM30">
         <v>4.440602208956486</v>
       </c>
-      <c r="AO30">
-        <v>3</v>
-      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D31">
         <v>76.98</v>
@@ -4608,6 +4596,9 @@
       <c r="AI31">
         <v>-462165</v>
       </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
       <c r="AK31">
         <v>-0.5977375440991473</v>
       </c>
@@ -4617,19 +4608,16 @@
       <c r="AM31">
         <v>0.5491709949241328</v>
       </c>
-      <c r="AO31">
-        <v>4</v>
-      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D32">
         <v>25.38</v>
@@ -4727,6 +4715,9 @@
       <c r="AI32">
         <v>-1099712</v>
       </c>
+      <c r="AJ32">
+        <v>1</v>
+      </c>
       <c r="AK32">
         <v>-0.6766314746091279</v>
       </c>
@@ -4736,19 +4727,16 @@
       <c r="AM32">
         <v>0.5810647446293458</v>
       </c>
-      <c r="AO32">
-        <v>4</v>
-      </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33">
         <v>27.57</v>
@@ -4846,6 +4834,9 @@
       <c r="AI33">
         <v>-19981772</v>
       </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
       <c r="AK33">
         <v>2.182113301517228</v>
       </c>
@@ -4855,19 +4846,16 @@
       <c r="AM33">
         <v>0.3979709963216413</v>
       </c>
-      <c r="AO33">
-        <v>1</v>
-      </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34">
         <v>8.75</v>
@@ -4962,6 +4950,9 @@
       <c r="AI34">
         <v>-7215525</v>
       </c>
+      <c r="AJ34">
+        <v>3</v>
+      </c>
       <c r="AK34">
         <v>0.4650101080647091</v>
       </c>
@@ -4971,19 +4962,16 @@
       <c r="AM34">
         <v>-0.1631227484922921</v>
       </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D35">
         <v>23.64</v>
@@ -5081,6 +5069,9 @@
       <c r="AI35">
         <v>-107132</v>
       </c>
+      <c r="AJ35">
+        <v>3</v>
+      </c>
       <c r="AK35">
         <v>0.2608140526271123</v>
       </c>
@@ -5090,19 +5081,16 @@
       <c r="AM35">
         <v>0.328670996962166</v>
       </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36">
         <v>3.35</v>
@@ -5200,6 +5188,9 @@
       <c r="AI36">
         <v>-80502</v>
       </c>
+      <c r="AJ36">
+        <v>3</v>
+      </c>
       <c r="AK36">
         <v>-0.7137580301432365</v>
       </c>
@@ -5209,19 +5200,16 @@
       <c r="AM36">
         <v>-0.9305414913992088</v>
       </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D37">
         <v>138.81</v>
@@ -5319,6 +5307,9 @@
       <c r="AI37">
         <v>-97159</v>
       </c>
+      <c r="AJ37">
+        <v>3</v>
+      </c>
       <c r="AK37">
         <v>0.9476553300081199</v>
       </c>
@@ -5328,19 +5319,16 @@
       <c r="AM37">
         <v>0.1538459985780352</v>
       </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38">
         <v>-1.71</v>
@@ -5438,6 +5426,9 @@
       <c r="AI38">
         <v>1096245</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
       <c r="AK38">
         <v>-0.2264719887580621</v>
       </c>
@@ -5447,19 +5438,16 @@
       <c r="AM38">
         <v>0.3790709964963298</v>
       </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D39">
         <v>135.07</v>
@@ -5557,6 +5545,9 @@
       <c r="AI39">
         <v>-48371</v>
       </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
       <c r="AK39">
         <v>-0.6070191829826744</v>
       </c>
@@ -5566,19 +5557,16 @@
       <c r="AM39">
         <v>0.5842147446002312</v>
       </c>
-      <c r="AO39">
-        <v>4</v>
-      </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D40">
         <v>-2.4</v>
@@ -5676,6 +5664,9 @@
       <c r="AI40">
         <v>-427266</v>
       </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
       <c r="AK40">
         <v>3.797118467250948</v>
       </c>
@@ -5685,19 +5676,16 @@
       <c r="AM40">
         <v>0.9267772414340009</v>
       </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41">
         <v>18.08</v>
@@ -5795,6 +5783,9 @@
       <c r="AI41">
         <v>27764</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
       <c r="AK41">
         <v>-0.5188436135891668</v>
       </c>
@@ -5804,19 +5795,16 @@
       <c r="AM41">
         <v>-1.947597731998781</v>
       </c>
-      <c r="AO41">
-        <v>2</v>
-      </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D42">
         <v>10.63</v>
@@ -5914,6 +5902,9 @@
       <c r="AI42">
         <v>-298700</v>
       </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
       <c r="AK42">
         <v>-0.4492313219627132</v>
       </c>
@@ -5923,19 +5914,16 @@
       <c r="AM42">
         <v>0.2239334979302318</v>
       </c>
-      <c r="AO42">
-        <v>4</v>
-      </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43">
         <v>18.23</v>
@@ -6030,6 +6018,9 @@
       <c r="AI43">
         <v>-894189</v>
       </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
       <c r="AK43">
         <v>-0.1475780582480814</v>
       </c>
@@ -6039,19 +6030,16 @@
       <c r="AM43">
         <v>0.09281474914213368</v>
       </c>
-      <c r="AO43">
-        <v>4</v>
-      </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D44">
         <v>67.06999999999999</v>
@@ -6149,6 +6137,9 @@
       <c r="AI44">
         <v>22997967</v>
       </c>
+      <c r="AJ44">
+        <v>3</v>
+      </c>
       <c r="AK44">
         <v>0.7016918995946511</v>
       </c>
@@ -6158,19 +6149,16 @@
       <c r="AM44">
         <v>-1.391622737137536</v>
       </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45">
         <v>-2.65</v>
@@ -6268,6 +6256,9 @@
       <c r="AI45">
         <v>-7407071</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
       <c r="AK45">
         <v>1.708749718457345</v>
       </c>
@@ -6277,19 +6268,16 @@
       <c r="AM45">
         <v>-1.408947736977405</v>
       </c>
-      <c r="AO45">
-        <v>2</v>
-      </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D46">
         <v>15.76</v>
@@ -6387,6 +6375,9 @@
       <c r="AI46">
         <v>-27753000</v>
       </c>
+      <c r="AJ46">
+        <v>3</v>
+      </c>
       <c r="AK46">
         <v>-0.3007250998262791</v>
       </c>
@@ -6396,19 +6387,16 @@
       <c r="AM46">
         <v>0.5235772451606902</v>
       </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47">
         <v>78.65000000000001</v>
@@ -6503,6 +6491,9 @@
       <c r="AI47">
         <v>-7090575</v>
       </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
       <c r="AK47">
         <v>0.3953978164382557</v>
       </c>
@@ -6512,19 +6503,16 @@
       <c r="AM47">
         <v>0.6350084941307556</v>
       </c>
-      <c r="AO47">
-        <v>4</v>
-      </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48">
         <v>10.83</v>
@@ -6619,6 +6607,9 @@
       <c r="AI48">
         <v>-932152</v>
       </c>
+      <c r="AJ48">
+        <v>3</v>
+      </c>
       <c r="AK48">
         <v>-0.3192883775933333</v>
       </c>
@@ -6628,19 +6619,16 @@
       <c r="AM48">
         <v>-0.2769164974405214</v>
       </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49">
         <v>-60.35</v>
@@ -6735,6 +6723,9 @@
       <c r="AH49">
         <v>-55</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
       <c r="AK49">
         <v>-0.7230396690267635</v>
       </c>
@@ -6744,19 +6735,16 @@
       <c r="AM49">
         <v>0.6133522443309195</v>
       </c>
-      <c r="AO49">
-        <v>2</v>
-      </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D50">
         <v>-20.16</v>
@@ -6854,6 +6842,9 @@
       <c r="AI50">
         <v>156946</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
       <c r="AK50">
         <v>-0.6023783635409108</v>
       </c>
@@ -6863,19 +6854,16 @@
       <c r="AM50">
         <v>-1.449110236606191</v>
       </c>
-      <c r="AO50">
-        <v>2</v>
-      </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51">
         <v>-19.73</v>
@@ -6973,6 +6961,9 @@
       <c r="AI51">
         <v>-216406</v>
       </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
       <c r="AK51">
         <v>-0.1475780582480814</v>
       </c>
@@ -6981,9 +6972,6 @@
       </c>
       <c r="AM51">
         <v>1.02836474049505</v>
-      </c>
-      <c r="AO51">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
